--- a/data/trans_dic/P38C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8606763838667493</v>
+        <v>0.8579294481984645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8378379542732141</v>
+        <v>0.8347957191594683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9104403139403939</v>
+        <v>0.9088059601409998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9178388238932921</v>
+        <v>0.9185019655467003</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.894276589951649</v>
+        <v>0.8955955647614301</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8910998692940231</v>
+        <v>0.890468159716282</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9052230700221813</v>
+        <v>0.9053665623476604</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8973911906535772</v>
+        <v>0.895933302135262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9437602013848648</v>
+        <v>0.9435189025563416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9491172418563867</v>
+        <v>0.9499636419320371</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9221678650190468</v>
+        <v>0.9210755028889477</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9229248564537748</v>
+        <v>0.9230656443920413</v>
       </c>
     </row>
     <row r="7">
@@ -694,13 +694,13 @@
         <v>0.7919122449531278</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7621466204224767</v>
+        <v>0.7621466204224766</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8578487247916069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8297946954015187</v>
+        <v>0.8297946954015186</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8243109984891793</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7704965163249652</v>
+        <v>0.7736432421693831</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7388029063272614</v>
+        <v>0.7383901377297483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8395873767686195</v>
+        <v>0.8418547450059467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8114931361382859</v>
+        <v>0.8116151968448583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.812871152593982</v>
+        <v>0.8130527404465585</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7809589267406259</v>
+        <v>0.7803157952742028</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8087296732804529</v>
+        <v>0.810128395688397</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7837254807538736</v>
+        <v>0.7845192957906565</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8718893561439621</v>
+        <v>0.8725637773577539</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8465730681686043</v>
+        <v>0.8458372124347318</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.836459593668618</v>
+        <v>0.8370659811690461</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8085534395311225</v>
+        <v>0.8097980308708831</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.80480715213691</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8337582057885965</v>
+        <v>0.8337582057885963</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.835667442650959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8912770434445161</v>
+        <v>0.8912770434445164</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8202671346249092</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7660138990403863</v>
+        <v>0.7679188226190763</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8007567314221111</v>
+        <v>0.7994652145745864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8046756460650603</v>
+        <v>0.8039214095072239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8658172822463625</v>
+        <v>0.8702411760071357</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7979631846193311</v>
+        <v>0.7939663592166774</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8402428427733272</v>
+        <v>0.8426144775625266</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8380902226716609</v>
+        <v>0.8379503244923906</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8638994324850849</v>
+        <v>0.8665093496697681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8625146294483489</v>
+        <v>0.8650089114995981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.911982786128951</v>
+        <v>0.9147741282771809</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8446076624460164</v>
+        <v>0.8420840538070385</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8815824482654679</v>
+        <v>0.8827376290700204</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +858,13 @@
         <v>0.8147111997163247</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7940885678415767</v>
+        <v>0.7940885678415768</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8742460461186893</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8653885705255319</v>
+        <v>0.865388570525532</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8452341762150102</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8000674344170625</v>
+        <v>0.800828368426445</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7763166305353457</v>
+        <v>0.7731269158478939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8628525754485188</v>
+        <v>0.8625065183771012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.852182625739009</v>
+        <v>0.8538391008877717</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8364312030107929</v>
+        <v>0.8359777560472752</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8205418973497918</v>
+        <v>0.8211835204762289</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8277940175867331</v>
+        <v>0.8274685713803966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8114930844869732</v>
+        <v>0.8099852731611522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8860333829237202</v>
+        <v>0.8845159756428728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8765677833985424</v>
+        <v>0.8767598177124788</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8536518822822395</v>
+        <v>0.8537995828854401</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8410555263064045</v>
+        <v>0.8413035603433218</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>644764</v>
+        <v>642706</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>484714</v>
+        <v>482954</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>901901</v>
+        <v>900282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>753190</v>
+        <v>753735</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1555824</v>
+        <v>1558119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1246775</v>
+        <v>1245891</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>678135</v>
+        <v>678243</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>519167</v>
+        <v>518323</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>934909</v>
+        <v>934670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>778858</v>
+        <v>779553</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1604348</v>
+        <v>1602448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1291303</v>
+        <v>1291500</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1578122</v>
+        <v>1584567</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1646897</v>
+        <v>1645976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1661233</v>
+        <v>1665719</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1754468</v>
+        <v>1754732</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3273284</v>
+        <v>3274015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3429320</v>
+        <v>3426496</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1656430</v>
+        <v>1659295</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1747035</v>
+        <v>1748805</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1725146</v>
+        <v>1726481</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1830311</v>
+        <v>1828720</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3368271</v>
+        <v>3370712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3550492</v>
+        <v>3555958</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>416692</v>
+        <v>417729</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>569808</v>
+        <v>568889</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>439420</v>
+        <v>439008</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>636269</v>
+        <v>639520</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>869826</v>
+        <v>865469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1215381</v>
+        <v>1218812</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>455900</v>
+        <v>455824</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>614740</v>
+        <v>616597</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>471005</v>
+        <v>472367</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>670195</v>
+        <v>672246</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>920671</v>
+        <v>917920</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1275177</v>
+        <v>1276848</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2673265</v>
+        <v>2675808</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2732059</v>
+        <v>2720834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3033215</v>
+        <v>3031998</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3168001</v>
+        <v>3174159</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5735103</v>
+        <v>5731994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5938075</v>
+        <v>5942718</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2765908</v>
+        <v>2764821</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2855854</v>
+        <v>2850548</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3114703</v>
+        <v>3109369</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3258653</v>
+        <v>3259367</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5853179</v>
+        <v>5854191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6086527</v>
+        <v>6088322</v>
       </c>
     </row>
     <row r="20">
